--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7098104456.615712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00320608828394721</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.057549409031605</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>7054475593.550745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004341677232035238</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.960860818449103</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8488307664040311</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.960860818449103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5114692347.288924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003158560686430947</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.037668887839964</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,39 +564,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>5016980928.374922</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004672868907215336</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.975599623582756</v>
-      </c>
-      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>8042031559.542868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002038745536695752</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9955003742812605</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.07211809319324</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.261097104575803</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-5.07211809319324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6693883725.168394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001235997315843433</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.032638955711535</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5817266661.858675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002151842686799099</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.027584402818081</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6201708183.656506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004795890714144946</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.854567117065007</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7995550688211019</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.854567117065007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -878,39 +704,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4442832147.135069</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004530036363771713</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.052614480522228</v>
-      </c>
-      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4905448429.061189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009702706993526362</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.931648892751999</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7258253387330359</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-4.931648892751999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7838873456.272985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001527087301492149</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1560046781441337</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.078786457008448</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.02656443807409336</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.078786457008448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5207086731.708776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003859814065706778</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.954875231446547</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.981931645148311</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.954875231446547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6634988205.943563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002602033404074564</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9914812904683921</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7509910679.788961</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003958573946926533</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.074158591425101</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5684884003.354908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005179628126891589</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.945932890192364</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.055522924508568</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.200029827435979</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-5.055522924508568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6879139262.542161</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003121659421126063</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.905750144500788</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.8512808427124753</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.905750144500788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6184235367.571493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001167193967076984</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.938706614060828</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.8377167514772658</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-4.938706614060828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3453922425.697871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002255477319142124</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.992628779869384</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8439092745334896</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.992628779869384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,39 +984,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5801784145.841778</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001268955468209513</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9195525240936674</v>
-      </c>
-      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,39 +1012,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7947454494.432844</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005573078834473613</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9830429983719123</v>
-      </c>
-      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1430,39 +1040,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4431322794.282702</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005722167459698758</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9363852670675078</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6623653398.181638</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001722536012734908</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9519712685656279</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.921822780952117</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.206254272925125</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.921822780952117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1522,39 +1096,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7074766863.579393</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004667950878213026</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.080923489727919</v>
-      </c>
-      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5323475944.559888</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003613510916144389</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5.046858735722522</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.263019881105724</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-5.046858735722522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1614,39 +1152,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5852895399.341793</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001390966097433168</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9572819326329913</v>
-      </c>
-      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6089255514.488999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002922787255936969</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.040675177735031</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5629206483.38928</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004087206178967851</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.008146008646825</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7087169478.160088</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001518407870295745</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.070273737499871</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8996912347.528885</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003187670631341971</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.002968028808749</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5101949394.040878</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002465778237769214</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.1244778134501483</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.059813904138189</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-0.2606264311275711</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-5.059813904138189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1890,39 +1320,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4088372141.638244</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.000937803223765546</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.036664853847869</v>
-      </c>
-      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,39 +1348,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7160658291.134321</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003277507476687139</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9419293372218032</v>
-      </c>
-      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6146287546.926478</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003821222533537292</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8754622688831887</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5265690816.730214</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002037684408244964</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.029609201634387</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6180691499.080315</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002411672025890098</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.98312621594384</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.945186702067453</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-4.98312621594384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2120,39 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4639177071.112245</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004585070928777417</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.117864460729529</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,39 +1488,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4611621232.182017</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003402844188109876</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.014324693713086</v>
-      </c>
-      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,39 +1516,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6154528475.749667</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002432647558722877</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9616233695662606</v>
-      </c>
-      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2258,39 +1544,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5707421081.868279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003177372182758693</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.082848555348711</v>
-      </c>
-      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6145822616.381364</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001053025297345977</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9646165978488791</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.007507841667642</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.226680742154628</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.007507841667642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5933362085.210988</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004724320398342922</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.1399111213033345</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.477475605323831</v>
-      </c>
-      <c r="M42" t="n">
-        <v>-0.605147179231787</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.477475605323831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6058202373.406191</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004342557898892977</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.106167431260807</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.8451423343030714</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.106167431260807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6402747802.348493</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002096190737855257</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.106676911695827</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.883692263197182</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-5.106676911695827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2488,39 +1684,21 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6132881591.582771</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001460973264736168</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.054591223071901</v>
-      </c>
-      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2534,39 +1712,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9999849481.52401</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003525468173947243</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9441378498367241</v>
-      </c>
-      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,39 +1740,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8520099719.3989</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003150629489674572</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.004005761138904</v>
-      </c>
-      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2626,39 +1768,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8200097000.255044</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00373563581852781</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.026570505775121</v>
-      </c>
-      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4679092800.393848</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004910424690736492</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9311537066900957</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.711810342717748</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.023149779536039</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.711810342717748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5815939120.27529</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003526083521280343</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.1245310482877446</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.059406824307207</v>
-      </c>
-      <c r="M50" t="n">
-        <v>-0.2567079438656123</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.059406824307207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2764,39 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5531537074.570453</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004117657577649576</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.067350817875329</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6091759085.33534</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001388579225664907</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9616233695662606</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2856,39 +1908,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5966485068.259615</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003298281300262719</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.024539701598811</v>
-      </c>
-      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4997048758.777117</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003866449691981197</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8792135709185536</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.906540992526388</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.098590761420062</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.906540992526388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6445712510.546424</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004174307787642519</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.021485925203754</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2994,39 +1992,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6362989702.502603</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002564309028885611</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.013297529202821</v>
-      </c>
-      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5536020647.637066</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002846173352650745</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9419293372218032</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4599286109.681037</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002508215148555558</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.838411720907621</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.763580621291702</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-4.838411720907621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7294243133.94007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004264985606243573</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.948847376660193</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8163108652445851</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.948847376660193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3178,39 +2104,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5004853604.946502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002881659793842584</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9518272903250554</v>
-      </c>
-      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5451361606.105829</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005206151311690465</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5.658382300279269</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9000387981976149</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-5.658382300279269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4253725358.015824</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003922419907821986</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9841017418111012</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6948545148.788617</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004072901579250983</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.033646900271371</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3362,39 +2216,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5267957668.505731</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003729019169565075</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9904304355992219</v>
-      </c>
-      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3408,39 +2244,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5646231116.051618</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004835861875681438</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.10662935688101</v>
-      </c>
-      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4363551380.247128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00358353352470695</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5.022818306676011</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8302247564244286</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-5.022818306676011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,39 +2300,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5944187819.311008</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00423610986292971</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9745316433791216</v>
-      </c>
-      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8841197515.103575</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001944363454770077</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6187318408794775</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.853277216592543</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.732564509311368</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.853277216592543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4635555086.375216</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001032385843333731</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.06692880112920137</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.059395000394713</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.4421712829170301</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.059395000394713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,39 +2384,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5416114217.716701</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002421962166406033</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9819831134293686</v>
-      </c>
-      <c r="N70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,39 +2412,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3507062834.445217</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003151785657156755</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9035590862475931</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,39 +2440,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5682421217.555395</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001979070546587218</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.145470209211146</v>
-      </c>
-      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6887032481.216342</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001125117580325131</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.967900149594272</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.8694363674147263</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.967900149594272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6275303131.412656</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004455242431828679</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9819831134293686</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5867911452.559981</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004232684976748584</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5.069629766582135</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.796945986188719</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-5.069629766582135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3914,39 +2552,21 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6932260289.371874</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002175677527740073</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.040675177735031</v>
-      </c>
-      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5963336457.465958</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005993769987578862</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.061480833031625</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5704888123.843489</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003380005898992114</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.023182289752665</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8512808427124753</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.023182289752665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7241346947.038087</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002298665328624488</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.90967557839194</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.5773502691896257</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.90967557839194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7588585948.818254</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002878952426531995</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.283743799238792</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9149562606484819</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-5.283743799238792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7182383114.579686</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003683301002244014</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.02507423679998125</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.912695533734758</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-0.5317525655109668</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.912695533734758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4190,39 +2720,21 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6028781895.961123</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005474551974581521</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.012269322414217</v>
-      </c>
-      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10900826353.10748</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002602871464458469</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9777320843206599</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7391999613.571662</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004858580907304934</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.069300318710483</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4328,39 +2804,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5013995731.344919</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002544816748689856</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.035659846482338</v>
-      </c>
-      <c r="N85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6901980255.986549</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002448334104286944</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.093375832586594</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3345854828.789454</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00109371331813535</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2252569389347118</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.971601783982198</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.4158279693516383</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-4.971601783982198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8005207812.811163</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004205720160454727</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.8753630508615876</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.919914348952156</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.070677142943246</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.919914348952156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5942727763.887945</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003571631345162066</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.044670106734299</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7001338393.351153</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003184268607577184</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.03338497254472041</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.915966797181111</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.5161235635300314</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.915966797181111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5799000172.999769</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003386145090556425</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.9058611513448364</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4650,39 +3000,21 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4071882883.839761</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.0037341340272407</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.129909763300135</v>
-      </c>
-      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7006473806.275391</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001398696222800661</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.034653862906922</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4664517372.944091</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001324160541948032</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.090514835534858</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4788,39 +3084,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6602290971.777481</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001881047712487562</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.012269322414217</v>
-      </c>
-      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7926092224.650229</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002579630752014361</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.053603315386148</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6147807852.357506</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004223855215035733</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9956736190636378</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6599114031.763693</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003171301141321465</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.853399350129695</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.803213305905777</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.070180724634342</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-4.803213305905777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3327180046.605867</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005953289764069929</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.021485925203754</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,39 +3224,21 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5644424522.486654</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002281236710588452</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5421248153869882</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9330430127375036</v>
-      </c>
-      <c r="N100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7941212976.281309</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001229608664634036</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9310440467782461</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.271209304853799</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.185328984462322</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-5.271209304853799</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7098104456.615712</v>
+        <v>1723454758.463416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00320608828394721</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+        <v>0.09137125685526204</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02999819541044721</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>861727335.9382567</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>7054475593.550745</v>
+        <v>2309223959.541228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004341677232035238</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>0.1308657361822711</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03833042527232971</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1154612066.569984</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5114692347.288924</v>
+        <v>5189998805.837042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003158560686430947</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1468494834391924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03056708381242558</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2594999498.452703</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>5016980928.374922</v>
+        <v>3830715276.562867</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004672868907215336</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08583675715717359</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03153789285506093</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1915357652.329373</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>8042031559.542868</v>
+        <v>2147703168.606219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002038745536695752</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1282113777004314</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05314695217651348</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1073851597.043482</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6693883725.168394</v>
+        <v>2334641784.046014</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001235997315843433</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+        <v>0.08209722200369741</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03379233653506035</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1167320919.810337</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5817266661.858675</v>
+        <v>3611016995.18361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002151842686799099</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
+        <v>0.1691291798977841</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03048350127379712</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1805508616.354069</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6201708183.656506</v>
+        <v>1763785861.463811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004795890714144946</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+        <v>0.1576483847806633</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0281903409415484</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>881892988.8079091</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4442832147.135069</v>
+        <v>5855272219.515632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004530036363771713</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1828940154495536</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04590938756916136</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2927636273.259723</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4905448429.061189</v>
+        <v>2995391617.197731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009702706993526362</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.139034801551018</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03070830779844571</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1497695747.279401</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7838873456.272985</v>
+        <v>2067825538.372172</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001527087301492149</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
+        <v>0.1417126340976922</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04155152214704817</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1033912699.674197</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5207086731.708776</v>
+        <v>4881492011.168375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003859814065706778</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0661527609817333</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0298950466572635</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2440746015.085431</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6634988205.943563</v>
+        <v>2646019942.167327</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002602033404074564</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
+        <v>0.1780661799768139</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03632117896552332</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1323010029.923009</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7509910679.788961</v>
+        <v>1801497953.828251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003958573946926533</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
+        <v>0.08244491374726899</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04406360550174225</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>900749129.966903</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5684884003.354908</v>
+        <v>1847703372.077341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005179628126891589</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+        <v>0.07139416029055749</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03245401749707121</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>923851774.0265896</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6879139262.542161</v>
+        <v>5297911190.241469</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003121659421126063</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1095023700426839</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04891065233186881</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2648955563.81426</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6184235367.571493</v>
+        <v>3725251661.850373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001167193967076984</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
+        <v>0.1475029151347041</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02678189395626994</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1862625807.040717</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3453922425.697871</v>
+        <v>1069050815.811799</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002255477319142124</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1362320668268656</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02040126591842565</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>534525451.6329431</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5801784145.841778</v>
+        <v>2045280462.563901</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001268955468209513</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1138281141437417</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02194084479646242</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1022640252.063181</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7947454494.432844</v>
+        <v>1821501475.76326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005573078834473613</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
+        <v>0.09906676538206639</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03897228860573385</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>910750790.1755471</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4431322794.282702</v>
+        <v>2453314219.565708</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005722167459698758</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1238285094912132</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04972128877626369</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1226657199.815517</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6623653398.181638</v>
+        <v>1379505863.58326</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001722536012734908</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1433769134973105</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04427572622999745</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>689752937.4122773</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7074766863.579393</v>
+        <v>3055899518.068571</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004667950878213026</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
+        <v>0.1193333404813966</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03090428343352595</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1527949789.708245</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5323475944.559888</v>
+        <v>1118806039.301244</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003613510916144389</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+        <v>0.08816458561513542</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02423539451173606</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>559403052.2794892</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5852895399.341793</v>
+        <v>1225989819.481132</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001390966097433168</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1242150450901977</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0351050681077226</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>612994936.2921692</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6089255514.488999</v>
+        <v>4289618958.493937</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002922787255936969</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
+        <v>0.1085787095693684</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02555409544585121</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2144809474.120661</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5629206483.38928</v>
+        <v>2894347629.020648</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004087206178967851</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
+        <v>0.1039096595661416</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03448722386019673</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1447173815.666735</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7087169478.160088</v>
+        <v>3609673600.284104</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001518407870295745</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
+        <v>0.09902003513853827</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0446320308357292</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1804836842.875352</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8996912347.528885</v>
+        <v>2124586416.578235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003187670631341971</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
+        <v>0.1337954219825694</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03161865048122024</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1062293258.666848</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5101949394.040878</v>
+        <v>1398691552.430655</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002465778237769214</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+        <v>0.07461605094490732</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03712555984893585</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>699345665.6255292</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4088372141.638244</v>
+        <v>1399431855.434024</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000937803223765546</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07410248435063881</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03790341561720909</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>699715974.4430544</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7160658291.134321</v>
+        <v>2169475860.651503</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003277507476687139</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
+        <v>0.1519799641144896</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04123059076821842</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1084737994.716545</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6146287546.926478</v>
+        <v>1381872048.35963</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003821222533537292</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
+        <v>0.1113234122525024</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02396859644024818</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>690935996.7049426</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5265690816.730214</v>
+        <v>1146356721.487472</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002037684408244964</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
+        <v>0.09346946534962518</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04363976093581066</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>573178346.0052893</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6180691499.080315</v>
+        <v>2126525940.081744</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002411672025890098</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
+        <v>0.171968001711019</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02044627774472055</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1063263021.009328</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4639177071.112245</v>
+        <v>2839426652.528511</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004585070928777417</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
+        <v>0.09163269608913767</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03163088815737539</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1419713467.471529</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4611621232.182017</v>
+        <v>1879941314.201941</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003402844188109876</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08317747649902581</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03182783616249938</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>939970651.5928717</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6154528475.749667</v>
+        <v>1995399037.722758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002432647558722877</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
+        <v>0.1797828877077081</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03194725948853266</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>997699513.2967973</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5707421081.868279</v>
+        <v>1176724150.871136</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003177372182758693</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
+        <v>0.09798299755939859</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05545885001205972</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>588362114.0164449</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6145822616.381364</v>
+        <v>2715620075.486694</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001053025297345977</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
+        <v>0.1464562244555748</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02885569908394949</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1357810041.446068</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5933362085.210988</v>
+        <v>3637840861.956461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004724320398342922</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
+        <v>0.09593111849395092</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04168741721410554</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1818920434.30915</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6058202373.406191</v>
+        <v>2621642271.28914</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004342557898892977</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
+        <v>0.1605107960452964</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0245838677537662</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1310821169.869276</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6402747802.348493</v>
+        <v>2304217286.031427</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002096190737855257</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
+        <v>0.09541906152495991</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03117125328187104</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1152108809.198754</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6132881591.582771</v>
+        <v>2195213064.261856</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001460973264736168</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
+        <v>0.1634797373244575</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04545565874442332</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1097606541.892953</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9999849481.52401</v>
+        <v>3561512344.826137</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003525468173947243</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
+        <v>0.1519558491422029</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04067610656609238</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1780756115.22529</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8520099719.3989</v>
+        <v>5079841691.288717</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003150629489674572</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
+        <v>0.1470323153251918</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05110328493983667</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2539920904.981267</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8200097000.255044</v>
+        <v>3880950382.327932</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00373563581852781</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
+        <v>0.09847898760602042</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03382008668122507</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1940475230.089022</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4679092800.393848</v>
+        <v>1525554513.770783</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004910424690736492</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1335133712062364</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03923567105400325</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>762777283.5044667</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5815939120.27529</v>
+        <v>3188215926.292731</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003526083521280343</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
+        <v>0.1421903971563518</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0426121570810875</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1594108006.869232</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5531537074.570453</v>
+        <v>999170515.7896367</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004117657577649576</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1387231527006239</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03743201677495414</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>499585340.5819573</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6091759085.33534</v>
+        <v>4891138155.723585</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001388579225664907</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
+        <v>0.09137493943584264</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05916398772031711</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2445569081.413413</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5966485068.259615</v>
+        <v>2405045682.767751</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003298281300262719</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
+        <v>0.1595242554662368</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02245926366680187</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1202522913.140989</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4997048758.777117</v>
+        <v>3276489667.846433</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003866449691981197</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
+        <v>0.1436904899367705</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04663547940050807</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1638244840.391223</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6445712510.546424</v>
+        <v>3227346089.096634</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004174307787642519</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
+        <v>0.1997551149745207</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02878069409695228</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1613672978.57278</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6362989702.502603</v>
+        <v>1408473299.217645</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002564309028885611</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
+        <v>0.1463122273733541</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05773972235355921</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>704236701.795475</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5536020647.637066</v>
+        <v>3677681270.419696</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002846173352650745</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
+        <v>0.1753603866448326</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02048720473984837</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1838840695.681746</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4599286109.681037</v>
+        <v>1884625486.677599</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002508215148555558</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+        <v>0.1723700663269515</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03654814798088557</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>942312737.717441</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7294243133.94007</v>
+        <v>3566310517.056434</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004264985606243573</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
+        <v>0.1115733170216895</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03777203378116795</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1783155253.409932</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5004853604.946502</v>
+        <v>3228076082.164092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002881659793842584</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1758599892575493</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02325282890262054</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1614038134.542799</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5451361606.105829</v>
+        <v>2224694388.479069</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005206151311690465</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
+        <v>0.1537811712990492</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03056756205047801</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1112347246.190417</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4253725358.015824</v>
+        <v>1974859624.986094</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003922419907821986</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1270177751061254</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04659247145779671</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>987429866.0716732</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6948545148.788617</v>
+        <v>5186926330.770565</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004072901579250983</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
+        <v>0.08807902310323933</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03331548760357655</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2593463174.132283</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5267957668.505731</v>
+        <v>5425273951.074939</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003729019169565075</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.166778605588675</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03446274531014967</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2712637110.611059</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5646231116.051618</v>
+        <v>4794221097.278515</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004835861875681438</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
+        <v>0.1430145804485429</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02380426810915326</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2397110517.972875</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4363551380.247128</v>
+        <v>4667585801.628333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00358353352470695</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1305238944130424</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05057949123486513</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2333792909.259812</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5944187819.311008</v>
+        <v>2971359639.088692</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00423610986292971</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
+        <v>0.09779104285734225</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04789859108261993</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1485679838.572199</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8841197515.103575</v>
+        <v>4869872091.135695</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001944363454770077</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
+        <v>0.1434777497548146</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04238980593438624</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2434936093.242249</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4635555086.375216</v>
+        <v>1642075805.770683</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001032385843333731</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.1463855163305827</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05569194891870583</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>821037859.6792378</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5416114217.716701</v>
+        <v>2845349011.976885</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002421962166406033</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
+        <v>0.08087832253206338</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03047908263400469</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1422674469.593565</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3507062834.445217</v>
+        <v>5145643176.764617</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003151785657156755</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1505816631202069</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03316473765685732</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2572821703.443081</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5682421217.555395</v>
+        <v>2121632915.243698</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001979070546587218</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
+        <v>0.06814870462658666</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04707690501864118</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1060816381.869485</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6887032481.216342</v>
+        <v>2300504183.691237</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001125117580325131</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
+        <v>0.09365677120331226</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05028178018840274</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1150252151.295137</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6275303131.412656</v>
+        <v>3576392680.191499</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004455242431828679</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
+        <v>0.1543431614110585</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02875677915326707</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1788196348.809717</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5867911452.559981</v>
+        <v>2061611144.948102</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004232684976748584</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
+        <v>0.1105894318133214</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02767969208402217</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1030805515.49713</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6932260289.371874</v>
+        <v>3283385377.24137</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002175677527740073</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
+        <v>0.07522054824217675</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02784927466054271</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1641692636.814857</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5963336457.465958</v>
+        <v>2204495968.471486</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005993769987578862</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
+        <v>0.1172985206744922</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0246705752886536</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1102248075.039755</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5704888123.843489</v>
+        <v>4352063800.834146</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003380005898992114</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
+        <v>0.09346494220949669</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05011751016018733</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2176031838.007807</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7241346947.038087</v>
+        <v>1535003250.462377</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002298665328624488</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
+        <v>0.146097216258191</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03923388688375364</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>767501664.6957678</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7588585948.818254</v>
+        <v>3545774683.515096</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002878952426531995</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
+        <v>0.07012335130939762</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03023446188900899</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1772887317.520779</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7182383114.579686</v>
+        <v>3829308552.079986</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003683301002244014</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
+        <v>0.0841891066680749</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02303287053441239</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1914654227.291464</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6028781895.961123</v>
+        <v>3784595490.380749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005474551974581521</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
+        <v>0.1569900097342061</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02545685403350005</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1892297795.874363</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10900826353.10748</v>
+        <v>2003045029.944956</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002602871464458469</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
+        <v>0.1236133073956381</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04167976201244487</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1001522499.28867</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7391999613.571662</v>
+        <v>1655270872.469055</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004858580907304934</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
+        <v>0.09527998193245857</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03305187374726066</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>827635490.673944</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5013995731.344919</v>
+        <v>2310765359.729105</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002544816748689856</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1695300080597625</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05169360782248913</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1155382663.174236</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6901980255.986549</v>
+        <v>1723999386.410027</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002448334104286944</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
+        <v>0.1620396741211751</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02124317608964177</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>861999681.6588808</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3345854828.789454</v>
+        <v>1431248552.244108</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00109371331813535</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.121101992204534</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03675645469264185</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>715624388.5998087</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8005207812.811163</v>
+        <v>2441253234.460201</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004205720160454727</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
+        <v>0.1220818345036281</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.04003940351626079</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1220626590.586555</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5942727763.887945</v>
+        <v>3031159673.664541</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003571631345162066</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.1260123494315013</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0409233985885674</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1515579871.855443</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7001338393.351153</v>
+        <v>1906830880.066925</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003184268607577184</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
+        <v>0.1016958598335673</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05177184018597179</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>953415491.6182224</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5799000172.999769</v>
+        <v>1550737033.189184</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003386145090556425</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
+        <v>0.1287893485476918</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05066722979930063</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>775368547.6786206</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4071882883.839761</v>
+        <v>2080062501.56873</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0037341340272407</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08717626847837882</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02961349082816581</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1040031191.620188</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7006473806.275391</v>
+        <v>3195532815.703057</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001398696222800661</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
+        <v>0.1273922389039683</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03620654023423955</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1597766454.465538</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4664517372.944091</v>
+        <v>1880197200.851265</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001324160541948032</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
+        <v>0.1082680155554643</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02919256247485214</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>940098581.9574566</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6602290971.777481</v>
+        <v>2169025502.62871</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001881047712487562</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
+        <v>0.1195085886630542</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03972353485085162</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1084512810.525242</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7926092224.650229</v>
+        <v>2213345655.392832</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002579630752014361</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
+        <v>0.09732108326149068</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03446526413572876</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1106672788.093588</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6147807852.357506</v>
+        <v>3790059925.773812</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004223855215035733</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
+        <v>0.1681142026666352</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02347156324564499</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1895030000.24345</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6599114031.763693</v>
+        <v>2667197861.130243</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003171301141321465</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
+        <v>0.1297577765319871</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02457919541250418</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1333598890.443411</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3327180046.605867</v>
+        <v>2496751253.020581</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005953289764069929</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1040234710605302</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02701779133609079</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1248375571.74873</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5644424522.486654</v>
+        <v>4703290728.783275</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002281236710588452</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1723259618619306</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02331099246561094</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2351645487.081637</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7941212976.281309</v>
+        <v>2522576779.282172</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001229608664634036</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
+        <v>0.1460981724943821</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04714911228272026</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1261288413.817382</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1723454758.463416</v>
+        <v>2415195018.262901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09137125685526204</v>
+        <v>0.09555821305076662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02999819541044721</v>
+        <v>0.02775381447687523</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>861727335.9382567</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2309223959.541228</v>
+        <v>1920158541.902701</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1308657361822711</v>
+        <v>0.1601301575083486</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03833042527232971</v>
+        <v>0.04715824097081665</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1154612066.569984</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5189998805.837042</v>
+        <v>3433212825.178483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1468494834391924</v>
+        <v>0.1389637855965317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03056708381242558</v>
+        <v>0.0353313376673251</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2594999498.452703</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3830715276.562867</v>
+        <v>3576874040.034233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08583675715717359</v>
+        <v>0.076533319665528</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03153789285506093</v>
+        <v>0.04334555307184515</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1915357652.329373</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2147703168.606219</v>
+        <v>1997695566.013927</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1282113777004314</v>
+        <v>0.1441974383884935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05314695217651348</v>
+        <v>0.04244350975330473</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1073851597.043482</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2334641784.046014</v>
+        <v>2744459079.395738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08209722200369741</v>
+        <v>0.09148931026652012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03379233653506035</v>
+        <v>0.04455323534009559</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1167320919.810337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3611016995.18361</v>
+        <v>3154702345.190176</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1691291798977841</v>
+        <v>0.2200973387635835</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03048350127379712</v>
+        <v>0.02337214202250572</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1805508616.354069</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1763785861.463811</v>
+        <v>1763928283.686738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1576483847806633</v>
+        <v>0.1860716853534608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0281903409415484</v>
+        <v>0.03598295867260024</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>881892988.8079091</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5855272219.515632</v>
+        <v>4024445778.228755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1828940154495536</v>
+        <v>0.1750404369481475</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04590938756916136</v>
+        <v>0.04228424066582284</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2927636273.259723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2995391617.197731</v>
+        <v>4043578421.678946</v>
       </c>
       <c r="F11" t="n">
-        <v>0.139034801551018</v>
+        <v>0.1814120349285436</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03070830779844571</v>
+        <v>0.04930401663122157</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1497695747.279401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2067825538.372172</v>
+        <v>2256908774.74306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1417126340976922</v>
+        <v>0.1648240555232096</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04155152214704817</v>
+        <v>0.03493537536524526</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1033912699.674197</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4881492011.168375</v>
+        <v>5246842132.247569</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0661527609817333</v>
+        <v>0.06128733486331206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0298950466572635</v>
+        <v>0.02737209459506008</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2440746015.085431</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2646019942.167327</v>
+        <v>2792019750.460952</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1780661799768139</v>
+        <v>0.1460667081405474</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03632117896552332</v>
+        <v>0.04166249862444225</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1323010029.923009</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1801497953.828251</v>
+        <v>1798479399.875021</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08244491374726899</v>
+        <v>0.08596106841118148</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04406360550174225</v>
+        <v>0.04096181850537729</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>900749129.966903</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1847703372.077341</v>
+        <v>2122942416.769675</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07139416029055749</v>
+        <v>0.07850591300047496</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03245401749707121</v>
+        <v>0.03637938776774605</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>923851774.0265896</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5297911190.241469</v>
+        <v>4600010421.473055</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1095023700426839</v>
+        <v>0.1298773694117507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04891065233186881</v>
+        <v>0.05110874792557945</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2648955563.81426</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3725251661.850373</v>
+        <v>3729228955.030033</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1475029151347041</v>
+        <v>0.1434717935625508</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02678189395626994</v>
+        <v>0.03421533056893744</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1862625807.040717</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1069050815.811799</v>
+        <v>1013553398.55559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1362320668268656</v>
+        <v>0.1668778993653995</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02040126591842565</v>
+        <v>0.02338437173163663</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>534525451.6329431</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2045280462.563901</v>
+        <v>2400369219.800961</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1138281141437417</v>
+        <v>0.1314679732662384</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02194084479646242</v>
+        <v>0.02331745031555375</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1022640252.063181</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1821501475.76326</v>
+        <v>1979904745.965246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09906676538206639</v>
+        <v>0.09111363599853679</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03897228860573385</v>
+        <v>0.0405564840587609</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>910750790.1755471</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2453314219.565708</v>
+        <v>2807475703.058636</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1238285094912132</v>
+        <v>0.09058939097614248</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04972128877626369</v>
+        <v>0.04807578237227964</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1226657199.815517</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1379505863.58326</v>
+        <v>1537645507.528166</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1433769134973105</v>
+        <v>0.1236429499709853</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04427572622999745</v>
+        <v>0.0536076631066524</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>689752937.4122773</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3055899518.068571</v>
+        <v>3147790067.909022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1193333404813966</v>
+        <v>0.09852050604051348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03090428343352595</v>
+        <v>0.02621038100394019</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1527949789.708245</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1118806039.301244</v>
+        <v>1092197242.811045</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08816458561513542</v>
+        <v>0.08346820845308818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02423539451173606</v>
+        <v>0.02809440341731582</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>559403052.2794892</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1225989819.481132</v>
+        <v>1272938156.757758</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1242150450901977</v>
+        <v>0.1077531608013334</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0351050681077226</v>
+        <v>0.02816824802848465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>612994936.2921692</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4289618958.493937</v>
+        <v>4502300126.129509</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1085787095693684</v>
+        <v>0.1184550545802163</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02555409544585121</v>
+        <v>0.02320616508012724</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2144809474.120661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2894347629.020648</v>
+        <v>2958550835.996248</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1039096595661416</v>
+        <v>0.1489171446410264</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03448722386019673</v>
+        <v>0.03087282858878785</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1447173815.666735</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3609673600.284104</v>
+        <v>5398450258.793394</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09902003513853827</v>
+        <v>0.1208456350911781</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0446320308357292</v>
+        <v>0.04658029502805593</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1804836842.875352</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2124586416.578235</v>
+        <v>1781023116.98388</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1337954219825694</v>
+        <v>0.1031933211624354</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03161865048122024</v>
+        <v>0.03379495710294869</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1062293258.666848</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1398691552.430655</v>
+        <v>986347743.0898972</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07461605094490732</v>
+        <v>0.0922503880782609</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03712555984893585</v>
+        <v>0.03966672410128345</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>699345665.6255292</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1399431855.434024</v>
+        <v>1452371254.891297</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07410248435063881</v>
+        <v>0.08167745272586042</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03790341561720909</v>
+        <v>0.03696367407521778</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>699715974.4430544</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2169475860.651503</v>
+        <v>2317458941.349477</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1519799641144896</v>
+        <v>0.1482785200156924</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04123059076821842</v>
+        <v>0.04930894812640645</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1084737994.716545</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1381872048.35963</v>
+        <v>1470889443.981627</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1113234122525024</v>
+        <v>0.110567532349419</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02396859644024818</v>
+        <v>0.02353177710004105</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>690935996.7049426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1146356721.487472</v>
+        <v>1342836179.664602</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09346946534962518</v>
+        <v>0.1063423490206209</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04363976093581066</v>
+        <v>0.02859633908913726</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>573178346.0052893</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2126525940.081744</v>
+        <v>3251107015.581428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.171968001711019</v>
+        <v>0.176304352097263</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02044627774472055</v>
+        <v>0.01893527010784786</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1063263021.009328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2839426652.528511</v>
+        <v>2905866680.247518</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09163269608913767</v>
+        <v>0.09441205545715378</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03163088815737539</v>
+        <v>0.03787862224886759</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1419713467.471529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1879941314.201941</v>
+        <v>1981199142.810383</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08317747649902581</v>
+        <v>0.1135441976238348</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03182783616249938</v>
+        <v>0.02741805820497323</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>939970651.5928717</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1995399037.722758</v>
+        <v>1592843584.894389</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797828877077081</v>
+        <v>0.1494161346787116</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03194725948853266</v>
+        <v>0.0308826156565504</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>997699513.2967973</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1176724150.871136</v>
+        <v>1160672062.262852</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09798299755939859</v>
+        <v>0.1082779837494471</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05545885001205972</v>
+        <v>0.0392778533092696</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>588362114.0164449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2715620075.486694</v>
+        <v>2375823816.512237</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1464562244555748</v>
+        <v>0.1527381838872399</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02885569908394949</v>
+        <v>0.03486881917590728</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1357810041.446068</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3637840861.956461</v>
+        <v>3765797247.721141</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09593111849395092</v>
+        <v>0.08294744768694992</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04168741721410554</v>
+        <v>0.03291248292082615</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1818920434.30915</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2621642271.28914</v>
+        <v>2292955587.894704</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1605107960452964</v>
+        <v>0.1247510449624745</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0245838677537662</v>
+        <v>0.02097913286010914</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1310821169.869276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2304217286.031427</v>
+        <v>2269539859.81299</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09541906152495991</v>
+        <v>0.08828119105210602</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03117125328187104</v>
+        <v>0.02894983285925115</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1152108809.198754</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2195213064.261856</v>
+        <v>2217890480.951071</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1634797373244575</v>
+        <v>0.1909908738219795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04545565874442332</v>
+        <v>0.05591176685105659</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1097606541.892953</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3561512344.826137</v>
+        <v>4868669741.760839</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1519558491422029</v>
+        <v>0.1730587278718584</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04067610656609238</v>
+        <v>0.05883759821020301</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1780756115.22529</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5079841691.288717</v>
+        <v>3890218936.762074</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1470323153251918</v>
+        <v>0.1603238889876814</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05110328493983667</v>
+        <v>0.04590533602475423</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2539920904.981267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3880950382.327932</v>
+        <v>4634365752.365846</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09847898760602042</v>
+        <v>0.07470926963753893</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03382008668122507</v>
+        <v>0.03437726266091518</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1940475230.089022</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1525554513.770783</v>
+        <v>1322147141.132958</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1335133712062364</v>
+        <v>0.1634780019992638</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03923567105400325</v>
+        <v>0.03472330261013182</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>762777283.5044667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3188215926.292731</v>
+        <v>3977352330.659451</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1421903971563518</v>
+        <v>0.162616844998823</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0426121570810875</v>
+        <v>0.03458405088461693</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1594108006.869232</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>999170515.7896367</v>
+        <v>1455395725.462236</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1387231527006239</v>
+        <v>0.1282312643051962</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03743201677495414</v>
+        <v>0.03569003294554543</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>499585340.5819573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4891138155.723585</v>
+        <v>3402688524.925845</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09137493943584264</v>
+        <v>0.1204154699384152</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05916398772031711</v>
+        <v>0.04232174211131259</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2445569081.413413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2405045682.767751</v>
+        <v>3254375144.511211</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1595242554662368</v>
+        <v>0.1839494684795947</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02245926366680187</v>
+        <v>0.02439191196034913</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1202522913.140989</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3276489667.846433</v>
+        <v>3768515936.877635</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436904899367705</v>
+        <v>0.1541531229160412</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04663547940050807</v>
+        <v>0.03871832369844452</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1638244840.391223</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3227346089.096634</v>
+        <v>3738480301.199415</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1997551149745207</v>
+        <v>0.1676662505503994</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02878069409695228</v>
+        <v>0.0317021977829325</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1613672978.57278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1408473299.217645</v>
+        <v>1357971344.829036</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1463122273733541</v>
+        <v>0.1083146410841439</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05773972235355921</v>
+        <v>0.04234429592681426</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>704236701.795475</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3677681270.419696</v>
+        <v>4144968691.827682</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1753603866448326</v>
+        <v>0.1846644318827677</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02048720473984837</v>
+        <v>0.02281204839531522</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1838840695.681746</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1884625486.677599</v>
+        <v>1481202760.735627</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1723700663269515</v>
+        <v>0.1864426297160731</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03654814798088557</v>
+        <v>0.03918256063061003</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>942312737.717441</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3566310517.056434</v>
+        <v>4395899344.738509</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1115733170216895</v>
+        <v>0.1254762545567324</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03777203378116795</v>
+        <v>0.03345797044092608</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1783155253.409932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3228076082.164092</v>
+        <v>3588596889.071462</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1758599892575493</v>
+        <v>0.1271144321889706</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02325282890262054</v>
+        <v>0.03348246182344388</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1614038134.542799</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2224694388.479069</v>
+        <v>3253356168.39367</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1537811712990492</v>
+        <v>0.1704061860715944</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03056756205047801</v>
+        <v>0.02654744933534707</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1112347246.190417</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1974859624.986094</v>
+        <v>1709455434.487663</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1270177751061254</v>
+        <v>0.1331046415109251</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04659247145779671</v>
+        <v>0.03766080261006659</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>987429866.0716732</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5186926330.770565</v>
+        <v>4962631576.162275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08807902310323933</v>
+        <v>0.08791059200207584</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03331548760357655</v>
+        <v>0.03372501009784208</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2593463174.132283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5425273951.074939</v>
+        <v>3740802815.512509</v>
       </c>
       <c r="F64" t="n">
-        <v>0.166778605588675</v>
+        <v>0.1341440323387555</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03446274531014967</v>
+        <v>0.02721783460210807</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2712637110.611059</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4794221097.278515</v>
+        <v>4659451947.47064</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1430145804485429</v>
+        <v>0.1739436913954241</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02380426810915326</v>
+        <v>0.02797453197613494</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2397110517.972875</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4667585801.628333</v>
+        <v>5034435771.856388</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1305238944130424</v>
+        <v>0.09972811238163007</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05057949123486513</v>
+        <v>0.03609282872766357</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2333792909.259812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2971359639.088692</v>
+        <v>2353233466.878748</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09779104285734225</v>
+        <v>0.1004452482213111</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04789859108261993</v>
+        <v>0.03462914939474684</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1485679838.572199</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4869872091.135695</v>
+        <v>4527516513.814802</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1434777497548146</v>
+        <v>0.1490543805468949</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04238980593438624</v>
+        <v>0.03190313504473508</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
         <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2434936093.242249</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1642075805.770683</v>
+        <v>1510623905.980211</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1463855163305827</v>
+        <v>0.1131978862887994</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05569194891870583</v>
+        <v>0.05111047720883821</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>821037859.6792378</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2845349011.976885</v>
+        <v>3038948779.817832</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08087832253206338</v>
+        <v>0.08640478884991894</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03047908263400469</v>
+        <v>0.03096800660522398</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1422674469.593565</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5145643176.764617</v>
+        <v>3691345492.920587</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1505816631202069</v>
+        <v>0.1693146493293933</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03316473765685732</v>
+        <v>0.02311376907888292</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2572821703.443081</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2121632915.243698</v>
+        <v>1411751502.629302</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06814870462658666</v>
+        <v>0.07958385062002218</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04707690501864118</v>
+        <v>0.05279189103122554</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1060816381.869485</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2300504183.691237</v>
+        <v>2584921885.721303</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09365677120331226</v>
+        <v>0.09855360782452055</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05028178018840274</v>
+        <v>0.03803790794583711</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1150252151.295137</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3576392680.191499</v>
+        <v>3722793466.280923</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1543431614110585</v>
+        <v>0.146237877046283</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02875677915326707</v>
+        <v>0.02281311121758519</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
         <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1788196348.809717</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2061611144.948102</v>
+        <v>1514369615.788623</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1105894318133214</v>
+        <v>0.1207022713298724</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02767969208402217</v>
+        <v>0.0267590448423305</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1030805515.49713</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3283385377.24137</v>
+        <v>4116456049.552845</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07522054824217675</v>
+        <v>0.09875751482149252</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02784927466054271</v>
+        <v>0.0322013455646054</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1641692636.814857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204495968.471486</v>
+        <v>2165305874.556564</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1172985206744922</v>
+        <v>0.173026768004275</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0246705752886536</v>
+        <v>0.02054746039303636</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1102248075.039755</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4352063800.834146</v>
+        <v>3110710647.518905</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09346494220949669</v>
+        <v>0.1073176314594807</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05011751016018733</v>
+        <v>0.05158239924085902</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2176031838.007807</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1535003250.462377</v>
+        <v>1352050487.050204</v>
       </c>
       <c r="F79" t="n">
-        <v>0.146097216258191</v>
+        <v>0.1519034513216356</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03923388688375364</v>
+        <v>0.03374328361507235</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>767501664.6957678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3545774683.515096</v>
+        <v>4142566380.505908</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07012335130939762</v>
+        <v>0.1020068158889748</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03023446188900899</v>
+        <v>0.03492288852221744</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1772887317.520779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3829308552.079986</v>
+        <v>3929796381.890925</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0841891066680749</v>
+        <v>0.1301277869048554</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02303287053441239</v>
+        <v>0.03149991081116884</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1914654227.291464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3784595490.380749</v>
+        <v>4981824613.107682</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1569900097342061</v>
+        <v>0.1989340454962671</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02545685403350005</v>
+        <v>0.0280017207417511</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1892297795.874363</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2003045029.944956</v>
+        <v>2035925634.094386</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1236133073956381</v>
+        <v>0.1085185248182253</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04167976201244487</v>
+        <v>0.03353988723714601</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1001522499.28867</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1655270872.469055</v>
+        <v>2026792570.575041</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09527998193245857</v>
+        <v>0.1159511876378792</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03305187374726066</v>
+        <v>0.03464743040854808</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>827635490.673944</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2310765359.729105</v>
+        <v>3190616513.245598</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1695300080597625</v>
+        <v>0.1452461527389511</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05169360782248913</v>
+        <v>0.04215950417935635</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1155382663.174236</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1723999386.410027</v>
+        <v>2308555386.042985</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620396741211751</v>
+        <v>0.1108252349995633</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02124317608964177</v>
+        <v>0.01756012968444796</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>861999681.6588808</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1431248552.244108</v>
+        <v>1262108561.471436</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121101992204534</v>
+        <v>0.1857934201759517</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03675645469264185</v>
+        <v>0.03207925820944349</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>715624388.5998087</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2441253234.460201</v>
+        <v>3650120003.477994</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1220818345036281</v>
+        <v>0.1686183596341075</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04003940351626079</v>
+        <v>0.02754391098304755</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1220626590.586555</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3031159673.664541</v>
+        <v>3473244482.468876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260123494315013</v>
+        <v>0.1053310299791351</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0409233985885674</v>
+        <v>0.03591546254046711</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1515579871.855443</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1906830880.066925</v>
+        <v>1869113013.975039</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1016958598335673</v>
+        <v>0.1326970597030026</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05177184018597179</v>
+        <v>0.03909874455269215</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>953415491.6182224</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1550737033.189184</v>
+        <v>1805450722.418195</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1287893485476918</v>
+        <v>0.1276482369280105</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05066722979930063</v>
+        <v>0.04822266692046168</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>775368547.6786206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2080062501.56873</v>
+        <v>2597618677.368877</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08717626847837882</v>
+        <v>0.08366077809957025</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02961349082816581</v>
+        <v>0.03980215335536823</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
         <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1040031191.620188</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3195532815.703057</v>
+        <v>3120087989.381445</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1273922389039683</v>
+        <v>0.1337425007264622</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03620654023423955</v>
+        <v>0.03652047701638968</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1597766454.465538</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1880197200.851265</v>
+        <v>1878197820.520562</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1082680155554643</v>
+        <v>0.1081186827922831</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02919256247485214</v>
+        <v>0.03631402882572593</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>940098581.9574566</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2169025502.62871</v>
+        <v>2289190379.445115</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1195085886630542</v>
+        <v>0.08555942090950941</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03972353485085162</v>
+        <v>0.03895268906079589</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1084512810.525242</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2213345655.392832</v>
+        <v>1630640939.462683</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09732108326149068</v>
+        <v>0.1010679304391436</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03446526413572876</v>
+        <v>0.04170438425230678</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1106672788.093588</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3790059925.773812</v>
+        <v>4644879375.772402</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1681142026666352</v>
+        <v>0.1126861403157143</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02347156324564499</v>
+        <v>0.02563178909895866</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1895030000.24345</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2667197861.130243</v>
+        <v>3730052088.043306</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297577765319871</v>
+        <v>0.07867073471513331</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02457919541250418</v>
+        <v>0.03046116843266908</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1333598890.443411</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2496751253.020581</v>
+        <v>2921373455.325721</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1040234710605302</v>
+        <v>0.1069879291589739</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02701779133609079</v>
+        <v>0.03047273928309861</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1248375571.74873</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4703290728.783275</v>
+        <v>2899073717.092495</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1723259618619306</v>
+        <v>0.1633635620996484</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02331099246561094</v>
+        <v>0.02027478973265799</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2351645487.081637</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2522576779.282172</v>
+        <v>3148881676.378479</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1460981724943821</v>
+        <v>0.1528675744900135</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04714911228272026</v>
+        <v>0.04464272925045071</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1261288413.817382</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2415195018.262901</v>
+        <v>1997902357.277768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09555821305076662</v>
+        <v>0.1074788202376439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02775381447687523</v>
+        <v>0.03087767647761449</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1920158541.902701</v>
+        <v>2498063588.175177</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1601301575083486</v>
+        <v>0.1750362339238873</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04715824097081665</v>
+        <v>0.0369206515198747</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3433212825.178483</v>
+        <v>4531875516.048162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1389637855965317</v>
+        <v>0.1314243818617278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0353313376673251</v>
+        <v>0.02688490061932267</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3576874040.034233</v>
+        <v>4158930320.576574</v>
       </c>
       <c r="F5" t="n">
-        <v>0.076533319665528</v>
+        <v>0.09488012289256606</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04334555307184515</v>
+        <v>0.04332154660233682</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1997695566.013927</v>
+        <v>2042151288.11321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1441974383884935</v>
+        <v>0.1485475570200349</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04244350975330473</v>
+        <v>0.04125400832424562</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2744459079.395738</v>
+        <v>2677142119.470903</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09148931026652012</v>
+        <v>0.09912000468524701</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04455323534009559</v>
+        <v>0.04902596376322584</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3154702345.190176</v>
+        <v>2538308206.800186</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2200973387635835</v>
+        <v>0.1435385712817768</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02337214202250572</v>
+        <v>0.02665705970778205</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1763928283.686738</v>
+        <v>2258754289.873326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1860716853534608</v>
+        <v>0.1470592121338299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03598295867260024</v>
+        <v>0.02816252522056029</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4024445778.228755</v>
+        <v>4092829562.634612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1750404369481475</v>
+        <v>0.2132793755123701</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04228424066582284</v>
+        <v>0.03659659386109876</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4043578421.678946</v>
+        <v>3606698789.062212</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1814120349285436</v>
+        <v>0.1820990131768567</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04930401663122157</v>
+        <v>0.03259651971674554</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2256908774.74306</v>
+        <v>2929450023.721837</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1648240555232096</v>
+        <v>0.1990094307520927</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03493537536524526</v>
+        <v>0.04805005183629038</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5246842132.247569</v>
+        <v>3702633954.962951</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06128733486331206</v>
+        <v>0.09316680654640261</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02737209459506008</v>
+        <v>0.02101752076648283</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2792019750.460952</v>
+        <v>3300758229.194728</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1460667081405474</v>
+        <v>0.1343221635188175</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04166249862444225</v>
+        <v>0.03550854594441963</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1798479399.875021</v>
+        <v>1511428787.615174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08596106841118148</v>
+        <v>0.1082743994639229</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04096181850537729</v>
+        <v>0.03083263148841075</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2122942416.769675</v>
+        <v>1980788893.457708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07850591300047496</v>
+        <v>0.07477366001779495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03637938776774605</v>
+        <v>0.05106495178045111</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4600010421.473055</v>
+        <v>3680952635.575757</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1298773694117507</v>
+        <v>0.1672801182195862</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05110874792557945</v>
+        <v>0.04228802491275343</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3729228955.030033</v>
+        <v>3731254971.270301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1434717935625508</v>
+        <v>0.1239322676662311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03421533056893744</v>
+        <v>0.02254351645535594</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1013553398.55559</v>
+        <v>1089818853.489275</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1668778993653995</v>
+        <v>0.1880929993200565</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02338437173163663</v>
+        <v>0.0251083173610582</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2400369219.800961</v>
+        <v>2381985236.403698</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1314679732662384</v>
+        <v>0.1397987253471274</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02331745031555375</v>
+        <v>0.02431574009370424</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1979904745.965246</v>
+        <v>2070087296.574634</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09111363599853679</v>
+        <v>0.0817258455397409</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0405564840587609</v>
+        <v>0.04129334485905439</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2807475703.058636</v>
+        <v>3253358089.746064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09058939097614248</v>
+        <v>0.1369283833565078</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04807578237227964</v>
+        <v>0.04496485496864478</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1537645507.528166</v>
+        <v>1521356166.435522</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1236429499709853</v>
+        <v>0.1378728542001815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0536076631066524</v>
+        <v>0.0489978933338527</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3147790067.909022</v>
+        <v>3236480912.213452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09852050604051348</v>
+        <v>0.09558338323072357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02621038100394019</v>
+        <v>0.02307359649905871</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1092197242.811045</v>
+        <v>1390486924.845845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08346820845308818</v>
+        <v>0.08671881480791563</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02809440341731582</v>
+        <v>0.02959841841635715</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1272938156.757758</v>
+        <v>1307386481.625296</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1077531608013334</v>
+        <v>0.1195596223458645</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02816824802848465</v>
+        <v>0.02432154472925158</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4502300126.129509</v>
+        <v>4180575470.261337</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1184550545802163</v>
+        <v>0.1299740506515532</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02320616508012724</v>
+        <v>0.02536317991420934</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2958550835.996248</v>
+        <v>2921917352.539255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1489171446410264</v>
+        <v>0.1458087275443701</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03087282858878785</v>
+        <v>0.04959825166501847</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5398450258.793394</v>
+        <v>4387560896.730938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1208456350911781</v>
+        <v>0.1243834588469448</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04658029502805593</v>
+        <v>0.04065216697050281</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1781023116.98388</v>
+        <v>1599518063.42029</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1031933211624354</v>
+        <v>0.09552063988473102</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03379495710294869</v>
+        <v>0.03660621322475983</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>986347743.0898972</v>
+        <v>1490659373.704679</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0922503880782609</v>
+        <v>0.09819556877545205</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03966672410128345</v>
+        <v>0.0509743162759948</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1452371254.891297</v>
+        <v>1272957987.527138</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08167745272586042</v>
+        <v>0.1197565181622013</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03696367407521778</v>
+        <v>0.02572587676138495</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2317458941.349477</v>
+        <v>3004121331.311831</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1482785200156924</v>
+        <v>0.1441444779221345</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04930894812640645</v>
+        <v>0.04090343844209626</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1470889443.981627</v>
+        <v>1147889001.071706</v>
       </c>
       <c r="F34" t="n">
-        <v>0.110567532349419</v>
+        <v>0.07925698998039389</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02353177710004105</v>
+        <v>0.02069914061488876</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1342836179.664602</v>
+        <v>934988505.1211441</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063423490206209</v>
+        <v>0.09585095399594745</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02859633908913726</v>
+        <v>0.03191664512165777</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3251107015.581428</v>
+        <v>2115147361.058375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.176304352097263</v>
+        <v>0.1218927404422167</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01893527010784786</v>
+        <v>0.02550011944117819</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2905866680.247518</v>
+        <v>2037060746.675463</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09441205545715378</v>
+        <v>0.1093174001077484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03787862224886759</v>
+        <v>0.03984080296713557</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1981199142.810383</v>
+        <v>2081165745.392234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1135441976238348</v>
+        <v>0.08077065606250884</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02741805820497323</v>
+        <v>0.03884790364763383</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1592843584.894389</v>
+        <v>1952597998.622879</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1494161346787116</v>
+        <v>0.1824074112163381</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0308826156565504</v>
+        <v>0.02912547787962337</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1160672062.262852</v>
+        <v>1379494335.659896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1082779837494471</v>
+        <v>0.1181802058410932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0392778533092696</v>
+        <v>0.05070434881664688</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2375823816.512237</v>
+        <v>2872505174.5509</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1527381838872399</v>
+        <v>0.1558280636923079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03486881917590728</v>
+        <v>0.03381081227758793</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3765797247.721141</v>
+        <v>3508726627.087152</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08294744768694992</v>
+        <v>0.09930736310658909</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03291248292082615</v>
+        <v>0.04027571141199839</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2292955587.894704</v>
+        <v>2581943816.355175</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1247510449624745</v>
+        <v>0.1552551550701568</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02097913286010914</v>
+        <v>0.01732358716019053</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2269539859.81299</v>
+        <v>1637933444.757346</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08828119105210602</v>
+        <v>0.08476218724316963</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02894983285925115</v>
+        <v>0.03142072405606473</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2217890480.951071</v>
+        <v>1803977331.914603</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1909908738219795</v>
+        <v>0.1948688473986515</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05591176685105659</v>
+        <v>0.05252689172900381</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4868669741.760839</v>
+        <v>3528343483.189063</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1730587278718584</v>
+        <v>0.1463427448264305</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05883759821020301</v>
+        <v>0.04093582604209404</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3890218936.762074</v>
+        <v>3699012497.354748</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1603238889876814</v>
+        <v>0.1650260960031176</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04590533602475423</v>
+        <v>0.05362524958084249</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4634365752.365846</v>
+        <v>3552236980.323878</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07470926963753893</v>
+        <v>0.08290275753458798</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03437726266091518</v>
+        <v>0.03885081391511769</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1322147141.132958</v>
+        <v>1967771845.630553</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1634780019992638</v>
+        <v>0.1789581113052005</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03472330261013182</v>
+        <v>0.02940005096935458</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3977352330.659451</v>
+        <v>2906698630.497031</v>
       </c>
       <c r="F50" t="n">
-        <v>0.162616844998823</v>
+        <v>0.1576700273775908</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03458405088461693</v>
+        <v>0.04545421860150198</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1455395725.462236</v>
+        <v>952547558.8340435</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1282312643051962</v>
+        <v>0.1598052909244863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03569003294554543</v>
+        <v>0.0432233084844335</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3402688524.925845</v>
+        <v>4444123808.450874</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1204154699384152</v>
+        <v>0.1178533464477219</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04232174211131259</v>
+        <v>0.0469601829370375</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3254375144.511211</v>
+        <v>3631157775.212753</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1839494684795947</v>
+        <v>0.1575445632155539</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02439191196034913</v>
+        <v>0.02991804804326286</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3768515936.877635</v>
+        <v>4958386829.555042</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1541531229160412</v>
+        <v>0.1684279132238878</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03871832369844452</v>
+        <v>0.04624356679316582</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3738480301.199415</v>
+        <v>3153563570.270672</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1676662505503994</v>
+        <v>0.1848646533938106</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0317021977829325</v>
+        <v>0.03247436841727799</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1357971344.829036</v>
+        <v>1836720579.650746</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1083146410841439</v>
+        <v>0.09961829706923032</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04234429592681426</v>
+        <v>0.04975049136000326</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4144968691.827682</v>
+        <v>3901563175.402596</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1846644318827677</v>
+        <v>0.1525035288301431</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02281204839531522</v>
+        <v>0.02655884487271298</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1481202760.735627</v>
+        <v>1387233048.327734</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1864426297160731</v>
+        <v>0.1668078912222709</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03918256063061003</v>
+        <v>0.02559836315498246</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4395899344.738509</v>
+        <v>5250690258.839954</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1254762545567324</v>
+        <v>0.08330502154322644</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03345797044092608</v>
+        <v>0.03318150474199517</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3588596889.071462</v>
+        <v>2306513718.197349</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1271144321889706</v>
+        <v>0.1406797257600203</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03348246182344388</v>
+        <v>0.03025909471020889</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3253356168.39367</v>
+        <v>2641270784.885743</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1704061860715944</v>
+        <v>0.1412352057929358</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02654744933534707</v>
+        <v>0.02478849564305124</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1709455434.487663</v>
+        <v>1315561996.393503</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1331046415109251</v>
+        <v>0.1346195249168254</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03766080261006659</v>
+        <v>0.03996808887186513</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4962631576.162275</v>
+        <v>4898605326.531085</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08791059200207584</v>
+        <v>0.06959325121333026</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03372501009784208</v>
+        <v>0.0454831403036676</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3740802815.512509</v>
+        <v>5245310516.314487</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1341440323387555</v>
+        <v>0.1407436093951252</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02721783460210807</v>
+        <v>0.02321270503921605</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4659451947.47064</v>
+        <v>5306848470.498731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1739436913954241</v>
+        <v>0.1681455399803529</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02797453197613494</v>
+        <v>0.03021534577559153</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5034435771.856388</v>
+        <v>4460464675.405083</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09972811238163007</v>
+        <v>0.152448864115616</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03609282872766357</v>
+        <v>0.05011607156868592</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2353233466.878748</v>
+        <v>2779591415.073312</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1004452482213111</v>
+        <v>0.08973665545541273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03462914939474684</v>
+        <v>0.04139132439812375</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4527516513.814802</v>
+        <v>5682354826.789312</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490543805468949</v>
+        <v>0.1310360825657676</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03190313504473508</v>
+        <v>0.03697274780796186</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1510623905.980211</v>
+        <v>1647050313.17841</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1131978862887994</v>
+        <v>0.1821241624745058</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05111047720883821</v>
+        <v>0.04968963636941601</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3038948779.817832</v>
+        <v>3553400868.557144</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08640478884991894</v>
+        <v>0.08873167747126871</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03096800660522398</v>
+        <v>0.037981957070271</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3691345492.920587</v>
+        <v>3942807796.752285</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1693146493293933</v>
+        <v>0.1702684158738372</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02311376907888292</v>
+        <v>0.02731667726062218</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1411751502.629302</v>
+        <v>1468478410.617436</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07958385062002218</v>
+        <v>0.09072918541174393</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05279189103122554</v>
+        <v>0.04900863780389778</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2584921885.721303</v>
+        <v>2271811724.952139</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09855360782452055</v>
+        <v>0.07466010144875061</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03803790794583711</v>
+        <v>0.0447916646927658</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3722793466.280923</v>
+        <v>2542533356.787787</v>
       </c>
       <c r="F74" t="n">
-        <v>0.146237877046283</v>
+        <v>0.1479546084011298</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02281311121758519</v>
+        <v>0.0287835309211098</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1514369615.788623</v>
+        <v>1526526405.84052</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1207022713298724</v>
+        <v>0.1402454078350601</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0267590448423305</v>
+        <v>0.03648850194417854</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4116456049.552845</v>
+        <v>4677516665.606284</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09875751482149252</v>
+        <v>0.09354168458968201</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0322013455646054</v>
+        <v>0.03193815556409837</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2165305874.556564</v>
+        <v>1471327735.75595</v>
       </c>
       <c r="F77" t="n">
-        <v>0.173026768004275</v>
+        <v>0.1594122903203927</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02054746039303636</v>
+        <v>0.02023564327526862</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3110710647.518905</v>
+        <v>3991354981.384729</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1073176314594807</v>
+        <v>0.1001415148884287</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05158239924085902</v>
+        <v>0.05267985800729232</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1352050487.050204</v>
+        <v>1569004442.946708</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1519034513216356</v>
+        <v>0.1297803336808922</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03374328361507235</v>
+        <v>0.03546984262743585</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4142566380.505908</v>
+        <v>4893992499.922183</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020068158889748</v>
+        <v>0.0826498196994282</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03492288852221744</v>
+        <v>0.03516219532198488</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3929796381.890925</v>
+        <v>3171664217.5401</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1301277869048554</v>
+        <v>0.1112998545768265</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03149991081116884</v>
+        <v>0.02271794544590928</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4981824613.107682</v>
+        <v>5000045609.860827</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1989340454962671</v>
+        <v>0.1633242264609647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0280017207417511</v>
+        <v>0.02010109799310009</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2035925634.094386</v>
+        <v>2047130339.0179</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1085185248182253</v>
+        <v>0.1324723566654759</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03353988723714601</v>
+        <v>0.02959055813666302</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2026792570.575041</v>
+        <v>1710349909.915259</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1159511876378792</v>
+        <v>0.09318373548318525</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03464743040854808</v>
+        <v>0.03424967577766472</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3190616513.245598</v>
+        <v>3530731873.422165</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1452461527389511</v>
+        <v>0.1758934645906095</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04215950417935635</v>
+        <v>0.05109568531913883</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2308555386.042985</v>
+        <v>2215120838.778952</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1108252349995633</v>
+        <v>0.1560414870782323</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01756012968444796</v>
+        <v>0.01909320976487193</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1262108561.471436</v>
+        <v>960774315.3780055</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1857934201759517</v>
+        <v>0.1425464303296406</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03207925820944349</v>
+        <v>0.03795248575203012</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3650120003.477994</v>
+        <v>2281436972.898973</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1686183596341075</v>
+        <v>0.137500560286365</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02754391098304755</v>
+        <v>0.02718636914403578</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3473244482.468876</v>
+        <v>3092670077.303644</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1053310299791351</v>
+        <v>0.1034167376354575</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03591546254046711</v>
+        <v>0.03744220268110635</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1869113013.975039</v>
+        <v>1644293780.374053</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1326970597030026</v>
+        <v>0.1123584359580024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03909874455269215</v>
+        <v>0.04190267877397475</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1805450722.418195</v>
+        <v>1571439212.960077</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1276482369280105</v>
+        <v>0.1792388257187618</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04822266692046168</v>
+        <v>0.04190148901877762</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2597618677.368877</v>
+        <v>2761590507.532039</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08366077809957025</v>
+        <v>0.07125751949609119</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03980215335536823</v>
+        <v>0.03005339053450116</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3120087989.381445</v>
+        <v>3434894170.837602</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1337425007264622</v>
+        <v>0.1378399620535488</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03652047701638968</v>
+        <v>0.05231873345266633</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1878197820.520562</v>
+        <v>2170521515.594153</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1081186827922831</v>
+        <v>0.147005352949156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03631402882572593</v>
+        <v>0.03697878563210247</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2289190379.445115</v>
+        <v>2965032705.82103</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08555942090950941</v>
+        <v>0.09858751393963186</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03895268906079589</v>
+        <v>0.0350970317557245</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1630640939.462683</v>
+        <v>1912328465.567758</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1010679304391436</v>
+        <v>0.08900985587604289</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04170438425230678</v>
+        <v>0.04147393479587461</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4644879375.772402</v>
+        <v>3269069123.294719</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1126861403157143</v>
+        <v>0.1236121699292961</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02563178909895866</v>
+        <v>0.01902263192750813</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3730052088.043306</v>
+        <v>3701451381.860418</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07867073471513331</v>
+        <v>0.1014965473615778</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03046116843266908</v>
+        <v>0.02797926583909908</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2921373455.325721</v>
+        <v>3006975634.192796</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1069879291589739</v>
+        <v>0.1372511513303576</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03047273928309861</v>
+        <v>0.02534838457869193</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2899073717.092495</v>
+        <v>4351626181.54228</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1633635620996484</v>
+        <v>0.179595237842086</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02027478973265799</v>
+        <v>0.02033347725692544</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3148881676.378479</v>
+        <v>2528607494.121484</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1528675744900135</v>
+        <v>0.185170651315529</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04464272925045071</v>
+        <v>0.03932757203907759</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1997902357.277768</v>
+        <v>1653316599.540405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1074788202376439</v>
+        <v>0.1104183096548067</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03087767647761449</v>
+        <v>0.03641461484469252</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2498063588.175177</v>
+        <v>2563469446.349657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1750362339238873</v>
+        <v>0.1448570684802385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0369206515198747</v>
+        <v>0.0468360614604147</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4531875516.048162</v>
+        <v>5012718419.949884</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1314243818617278</v>
+        <v>0.1270197835748233</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02688490061932267</v>
+        <v>0.03160579930309139</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.1176536657588</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4158930320.576574</v>
+        <v>4019278160.83764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09488012289256606</v>
+        <v>0.09322316946041076</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04332154660233682</v>
+        <v>0.0344806500348314</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>224.637332221265</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2042151288.11321</v>
+        <v>2457143833.420038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1485475570200349</v>
+        <v>0.1073599897344689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04125400832424562</v>
+        <v>0.03468041090924835</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2677142119.470903</v>
+        <v>2796699956.248323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09912000468524701</v>
+        <v>0.09643351599170238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04902596376322584</v>
+        <v>0.04065351988956827</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2538308206.800186</v>
+        <v>3512674442.172159</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1435385712817768</v>
+        <v>0.1521919046873414</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02665705970778205</v>
+        <v>0.02373051312775768</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258754289.873326</v>
+        <v>1633576782.114212</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1470592121338299</v>
+        <v>0.1685693619537904</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02816252522056029</v>
+        <v>0.02899999160396002</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4092829562.634612</v>
+        <v>4351463117.586592</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2132793755123701</v>
+        <v>0.1946061519394561</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03659659386109876</v>
+        <v>0.03743855263818626</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.2696422277994</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3606698789.062212</v>
+        <v>3526350589.941006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1820990131768567</v>
+        <v>0.1746727735466561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03259651971674554</v>
+        <v>0.04604641693551512</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2929450023.721837</v>
+        <v>3302538931.551255</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1990094307520927</v>
+        <v>0.1383633117896101</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04805005183629038</v>
+        <v>0.04136190177434373</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3702633954.962951</v>
+        <v>3723412879.75105</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09316680654640261</v>
+        <v>0.08778076215848864</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02101752076648283</v>
+        <v>0.02084363919612837</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3300758229.194728</v>
+        <v>2562625311.164276</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1343221635188175</v>
+        <v>0.1281626358820184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03550854594441963</v>
+        <v>0.04412604457909198</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1511428787.615174</v>
+        <v>1768744158.815633</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1082743994639229</v>
+        <v>0.07643416818520841</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03083263148841075</v>
+        <v>0.03739411697013895</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1980788893.457708</v>
+        <v>2016054292.542167</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07477366001779495</v>
+        <v>0.1128239643641638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05106495178045111</v>
+        <v>0.03492272766731669</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3680952635.575757</v>
+        <v>3666782884.150626</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1672801182195862</v>
+        <v>0.1303329028389209</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04228802491275343</v>
+        <v>0.05069293742905421</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>174.2146520213858</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3731254971.270301</v>
+        <v>3605376376.728164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1239322676662311</v>
+        <v>0.1274284123241937</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02254351645535594</v>
+        <v>0.0306434449218159</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>179.4233948396872</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1089818853.489275</v>
+        <v>1161623258.818564</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1880929993200565</v>
+        <v>0.1450709883554294</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0251083173610582</v>
+        <v>0.02367304306724692</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2381985236.403698</v>
+        <v>2155575238.499609</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1397987253471274</v>
+        <v>0.142677179307196</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02431574009370424</v>
+        <v>0.0217828360697902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2070087296.574634</v>
+        <v>1774066329.632215</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0817258455397409</v>
+        <v>0.08834030209642026</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04129334485905439</v>
+        <v>0.03370847701962563</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3253358089.746064</v>
+        <v>3408362310.222365</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1369283833565078</v>
+        <v>0.1271793542667449</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04496485496864478</v>
+        <v>0.05488094218908783</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1521356166.435522</v>
+        <v>1373593898.3527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1378728542001815</v>
+        <v>0.1401363009550244</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0489978933338527</v>
+        <v>0.03525520514491397</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3236480912.213452</v>
+        <v>4109471695.931528</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09558338323072357</v>
+        <v>0.1439049165398449</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02307359649905871</v>
+        <v>0.02358306441322437</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>198.1079746346638</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1390486924.845845</v>
+        <v>899352456.2024207</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08671881480791563</v>
+        <v>0.07589641265986977</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02959841841635715</v>
+        <v>0.0189234325661454</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1307386481.625296</v>
+        <v>1241389180.597764</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1195596223458645</v>
+        <v>0.1063286279225102</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02432154472925158</v>
+        <v>0.03797231862616157</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4180575470.261337</v>
+        <v>3336219773.913857</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1299740506515532</v>
+        <v>0.1547444610232656</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02536317991420934</v>
+        <v>0.01706750154326676</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>125.0101165585255</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2921917352.539255</v>
+        <v>3558042809.969495</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1458087275443701</v>
+        <v>0.1483943993249094</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04959825166501847</v>
+        <v>0.0399322406391323</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4387560896.730938</v>
+        <v>3766113730.148433</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1243834588469448</v>
+        <v>0.1186695199840154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04065216697050281</v>
+        <v>0.03047637764796029</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>224.657437229946</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1599518063.42029</v>
+        <v>2391716723.629002</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09552063988473102</v>
+        <v>0.1278550166236515</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03660621322475983</v>
+        <v>0.02868232057101771</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1490659373.704679</v>
+        <v>1139779035.197863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09819556877545205</v>
+        <v>0.07267201954891321</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0509743162759948</v>
+        <v>0.05152778850174353</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1272957987.527138</v>
+        <v>1177121361.969769</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1197565181622013</v>
+        <v>0.07647949236317822</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02572587676138495</v>
+        <v>0.03217746529881142</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3004121331.311831</v>
+        <v>2487580178.585901</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1441444779221345</v>
+        <v>0.1579127666473228</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04090343844209626</v>
+        <v>0.05099107441813266</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1147889001.071706</v>
+        <v>1071430812.242553</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07925698998039389</v>
+        <v>0.1049283667844899</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02069914061488876</v>
+        <v>0.02302375870776679</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>934988505.1211441</v>
+        <v>1088629750.953697</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09585095399594745</v>
+        <v>0.1010530130406029</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03191664512165777</v>
+        <v>0.03232907797220642</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,22 +1701,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2115147361.058375</v>
+        <v>2086456701.771319</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1218927404422167</v>
+        <v>0.1323063263992611</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02550011944117819</v>
+        <v>0.01793934644640968</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>52.42308202608042</v>
       </c>
     </row>
     <row r="37">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2037060746.675463</v>
+        <v>1876928104.247936</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1093174001077484</v>
+        <v>0.1056541878003751</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03984080296713557</v>
+        <v>0.02923352940191917</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2081165745.392234</v>
+        <v>1946590668.385852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08077065606250884</v>
+        <v>0.1189795878051007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03884790364763383</v>
+        <v>0.03554628329859029</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1952597998.622879</v>
+        <v>1577682597.301952</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1824074112163381</v>
+        <v>0.1684200324108398</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02912547787962337</v>
+        <v>0.03029148920614631</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1379494335.659896</v>
+        <v>1504163210.017121</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1181802058410932</v>
+        <v>0.09882679779028192</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05070434881664688</v>
+        <v>0.05898011525056178</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2872505174.5509</v>
+        <v>2618401692.093358</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1558280636923079</v>
+        <v>0.1403535697922512</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03381081227758793</v>
+        <v>0.04409528049139915</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3508726627.087152</v>
+        <v>3120578593.8446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09930736310658909</v>
+        <v>0.1191575893191514</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04027571141199839</v>
+        <v>0.03279657813680504</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2581943816.355175</v>
+        <v>3077645269.901115</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1552551550701568</v>
+        <v>0.1888862438001292</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01732358716019053</v>
+        <v>0.01645134743508853</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1637933444.757346</v>
+        <v>2249339504.581984</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08476218724316963</v>
+        <v>0.09711444343858959</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03142072405606473</v>
+        <v>0.02799145333806224</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2024,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1803977331.914603</v>
+        <v>2267902071.273116</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1948688473986515</v>
+        <v>0.1278622847094129</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05252689172900381</v>
+        <v>0.04018025032010526</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3528343483.189063</v>
+        <v>5380692863.259107</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1463427448264305</v>
+        <v>0.1400201346120453</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04093582604209404</v>
+        <v>0.05524231088059463</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.427484620835</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3699012497.354748</v>
+        <v>4951929299.272249</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1650260960031176</v>
+        <v>0.1608906679404489</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05362524958084249</v>
+        <v>0.04650608925674193</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.8172878297606</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3552236980.323878</v>
+        <v>4634823204.269789</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08290275753458798</v>
+        <v>0.06684150571090582</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03885081391511769</v>
+        <v>0.03869870901467772</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2168,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1967771845.630553</v>
+        <v>1300966363.746119</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1789581113052005</v>
+        <v>0.1324897360470022</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02940005096935458</v>
+        <v>0.03426195942408036</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2197,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2906698630.497031</v>
+        <v>3106151631.282744</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1576700273775908</v>
+        <v>0.1097156079439721</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04545421860150198</v>
+        <v>0.03230806520054717</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>134.5600421545402</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2240,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>952547558.8340435</v>
+        <v>1399285728.748189</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1598052909244863</v>
+        <v>0.1747521544476769</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0432233084844335</v>
+        <v>0.03957193965624595</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2275,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4444123808.450874</v>
+        <v>4296795088.948826</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1178533464477219</v>
+        <v>0.09745620186125593</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0469601829370375</v>
+        <v>0.03957517490010345</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3631157775.212753</v>
+        <v>3223432834.409934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1575445632155539</v>
+        <v>0.1544639498489837</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02991804804326286</v>
+        <v>0.02170149560083306</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4958386829.555042</v>
+        <v>4843323233.341005</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1684279132238878</v>
+        <v>0.1165127727639163</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04624356679316582</v>
+        <v>0.04682813467252043</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>210.5233609264444</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2382,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3153563570.270672</v>
+        <v>3909484992.498254</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1848646533938106</v>
+        <v>0.140701407252529</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03247436841727799</v>
+        <v>0.02827824390484812</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.8271659137559</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1836720579.650746</v>
+        <v>1209773954.095008</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09961829706923032</v>
+        <v>0.1110261306833578</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04975049136000326</v>
+        <v>0.04897100628468028</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3901563175.402596</v>
+        <v>3540871159.10734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1525035288301431</v>
+        <v>0.1776502289391807</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02655884487271298</v>
+        <v>0.02726955573861544</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1387233048.327734</v>
+        <v>1495240797.885328</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1668078912222709</v>
+        <v>0.1395465495874009</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02559836315498246</v>
+        <v>0.02940143854168921</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5250690258.839954</v>
+        <v>4938440151.427792</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08330502154322644</v>
+        <v>0.1273074331612552</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03318150474199517</v>
+        <v>0.0365781448789716</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2306513718.197349</v>
+        <v>2613311347.012791</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1406797257600203</v>
+        <v>0.1292728047644979</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03025909471020889</v>
+        <v>0.02914739707435474</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2641270784.885743</v>
+        <v>2806082631.131328</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1412352057929358</v>
+        <v>0.1367446722578435</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02478849564305124</v>
+        <v>0.03242695615215559</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2629,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1315561996.393503</v>
+        <v>1579972282.818807</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1346195249168254</v>
+        <v>0.144959192019686</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03996808887186513</v>
+        <v>0.04293930848227417</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4898605326.531085</v>
+        <v>4724532076.448073</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06959325121333026</v>
+        <v>0.08207237066725412</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0454831403036676</v>
+        <v>0.02894341142167002</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5245310516.314487</v>
+        <v>4740906201.100057</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1407436093951252</v>
+        <v>0.1520953247465529</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02321270503921605</v>
+        <v>0.02925545571090401</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5306848470.498731</v>
+        <v>4709610927.750483</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1681455399803529</v>
+        <v>0.1210055490145272</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03021534577559153</v>
+        <v>0.02814255957163869</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.7286317920785</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4460464675.405083</v>
+        <v>3783229211.747087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.152448864115616</v>
+        <v>0.1407201524623441</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05011607156868592</v>
+        <v>0.04307141818005197</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2779591415.073312</v>
+        <v>3440113602.010946</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08973665545541273</v>
+        <v>0.1030620147085581</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04139132439812375</v>
+        <v>0.04479407937629531</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5682354826.789312</v>
+        <v>5619340733.624566</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1310360825657676</v>
+        <v>0.1112648517187398</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03697274780796186</v>
+        <v>0.04934792839327663</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1647050313.17841</v>
+        <v>1759684922.471023</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1821241624745058</v>
+        <v>0.1777440683902836</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04968963636941601</v>
+        <v>0.04676351718356487</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3553400868.557144</v>
+        <v>3311690353.813902</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08873167747126871</v>
+        <v>0.1017486450399347</v>
       </c>
       <c r="G70" t="n">
-        <v>0.037981957070271</v>
+        <v>0.04349197176337662</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>141.4804587324355</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3942807796.752285</v>
+        <v>3449711913.021414</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1702684158738372</v>
+        <v>0.1616952847192681</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02731667726062218</v>
+        <v>0.02626138239901925</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1468478410.617436</v>
+        <v>2034525735.644758</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09072918541174393</v>
+        <v>0.09469221495462068</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04900863780389778</v>
+        <v>0.03756517037039737</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2271811724.952139</v>
+        <v>2496996094.614393</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07466010144875061</v>
+        <v>0.09302976514892047</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0447916646927658</v>
+        <v>0.04509076432506751</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2542533356.787787</v>
+        <v>2719068684.296133</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1479546084011298</v>
+        <v>0.1501388657854523</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0287835309211098</v>
+        <v>0.02775521454677287</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>103.1204525999775</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1526526405.84052</v>
+        <v>1541539418.180518</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1402454078350601</v>
+        <v>0.1013118695572224</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03648850194417854</v>
+        <v>0.03723473495652544</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4677516665.606284</v>
+        <v>4989410205.417542</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09354168458968201</v>
+        <v>0.1065579573579875</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03193815556409837</v>
+        <v>0.02875416055409099</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1471327735.75595</v>
+        <v>2269025558.715546</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1594122903203927</v>
+        <v>0.1777161158711505</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02023564327526862</v>
+        <v>0.02229374115460003</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3991354981.384729</v>
+        <v>3394661854.664767</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1001415148884287</v>
+        <v>0.08978002587798502</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05267985800729232</v>
+        <v>0.03868006624318752</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1569004442.946708</v>
+        <v>1232259125.054334</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1297803336808922</v>
+        <v>0.1129276763094156</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03546984262743585</v>
+        <v>0.03328052005197696</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4893992499.922183</v>
+        <v>5307274622.755819</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0826498196994282</v>
+        <v>0.09511658224883983</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03516219532198488</v>
+        <v>0.03048389853415273</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.8743117386156</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3171664217.5401</v>
+        <v>4662003629.202301</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1112998545768265</v>
+        <v>0.1005665809327321</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02271794544590928</v>
+        <v>0.02330231454496415</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>171.1085078363547</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5000045609.860827</v>
+        <v>4968113801.011225</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1633242264609647</v>
+        <v>0.1906261352109283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02010109799310009</v>
+        <v>0.02199743102655034</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2047130339.0179</v>
+        <v>1498291081.540152</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1324723566654759</v>
+        <v>0.1136037828371778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02959055813666302</v>
+        <v>0.04099966887910485</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1710349909.915259</v>
+        <v>2308893759.801762</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09318373548318525</v>
+        <v>0.1199266829650507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03424967577766472</v>
+        <v>0.04732114107588663</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3530731873.422165</v>
+        <v>2870847938.61585</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1758934645906095</v>
+        <v>0.172958698937873</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05109568531913883</v>
+        <v>0.0538517472692293</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2215120838.778952</v>
+        <v>2733778819.586901</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1560414870782323</v>
+        <v>0.1195115728002286</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01909320976487193</v>
+        <v>0.02171513058031669</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>960774315.3780055</v>
+        <v>1347715620.517052</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1425464303296406</v>
+        <v>0.1662935052938406</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03795248575203012</v>
+        <v>0.03683997580933456</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3549,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2281436972.898973</v>
+        <v>2538935971.255552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.137500560286365</v>
+        <v>0.1542599223997274</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02718636914403578</v>
+        <v>0.02702731098418355</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>96.44862005703958</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3092670077.303644</v>
+        <v>2843835642.302831</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1034167376354575</v>
+        <v>0.1182192827606349</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03744220268110635</v>
+        <v>0.03080162511448067</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644293780.374053</v>
+        <v>1386488223.862847</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1123584359580024</v>
+        <v>0.1247472306562661</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04190267877397475</v>
+        <v>0.03939300399119058</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1571439212.960077</v>
+        <v>1881376734.828805</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1792388257187618</v>
+        <v>0.185403502264291</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04190148901877762</v>
+        <v>0.04164659626251146</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2761590507.532039</v>
+        <v>2351643552.523188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07125751949609119</v>
+        <v>0.1074092248021121</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03005339053450116</v>
+        <v>0.02924527932052092</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3434894170.837602</v>
+        <v>4196194968.140397</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1378399620535488</v>
+        <v>0.1010373444520841</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05231873345266633</v>
+        <v>0.03663459200875863</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2170521515.594153</v>
+        <v>2204636620.358829</v>
       </c>
       <c r="F94" t="n">
-        <v>0.147005352949156</v>
+        <v>0.1567616065933455</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03697878563210247</v>
+        <v>0.03332015713314081</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2965032705.82103</v>
+        <v>3068727486.97119</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09858751393963186</v>
+        <v>0.09536308905074871</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0350970317557245</v>
+        <v>0.0408571177983407</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1912328465.567758</v>
+        <v>2310675109.586504</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08900985587604289</v>
+        <v>0.1109769008599148</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04147393479587461</v>
+        <v>0.03349138625571867</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3269069123.294719</v>
+        <v>4353683527.62222</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1236121699292961</v>
+        <v>0.1227213089091606</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01902263192750813</v>
+        <v>0.02146499650265281</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3701451381.860418</v>
+        <v>3790748523.293768</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1014965473615778</v>
+        <v>0.113558661746807</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02797926583909908</v>
+        <v>0.01992839102310932</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3006975634.192796</v>
+        <v>2962763510.826056</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1372511513303576</v>
+        <v>0.1124315009691926</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02534838457869193</v>
+        <v>0.03184811337117659</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4351626181.54228</v>
+        <v>3808865741.469171</v>
       </c>
       <c r="F100" t="n">
-        <v>0.179595237842086</v>
+        <v>0.1506004628556795</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02033347725692544</v>
+        <v>0.0223134872465902</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2528607494.121484</v>
+        <v>3428406205.885448</v>
       </c>
       <c r="F101" t="n">
-        <v>0.185170651315529</v>
+        <v>0.1524305681726637</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03932757203907759</v>
+        <v>0.0353628105703779</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
